--- a/medicine/Sexualité et sexologie/Jeunes_adultes_qui_baisent/Jeunes_adultes_qui_baisent.xlsx
+++ b/medicine/Sexualité et sexologie/Jeunes_adultes_qui_baisent/Jeunes_adultes_qui_baisent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeunes adultes qui baisent (Young People Fucking) est un film canadien réalisé par Martin Gero, sorti dès 2007 dans certains festivals puis en 2008 dans les circuits habituels de distribution.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comédie romantique retraçant la nuit d'amour de cinq couples de jeunes adultes (en fait quatre couples et un trio), chacun des couples en étant à un stade différent de sa vie amoureuse et sexuelle (première nuit à deux, couple touché par la lassitude, couple d'ex qui se reforme...).
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Young People Fucking
 : Jeunes adultes qui baisent
@@ -550,7 +566,7 @@
 Scénario : Martin Gero, Aaron Abrams
 Production : Martin Gero
 Sociétés de distribution : Maple Pictures ( Canada) ; Revolver Entertainment (en) ( Royaume-Uni) et ThinkFilm (en)( États-Unis)
-Budget : 1,4 $ CDN[1] (≈ 870 000 €)
+Budget : 1,4 $ CDN (≈ 870 000 €)
 Pays d'origine :  Canada
 Langue originale : anglais
 Durée : 90 minutes
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aaron Abrams (acteur) (VQ : Tristan Harvey) : Matt
 Diora Baird (VQ : Aline Pinsonneault) : Jamie
@@ -625,9 +643,11 @@
           <t>Polémiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'assistante du député conservateur ontarien Gary Goodyear a été congédiée parce qu'elle a réservé un billet pour une avant-première de ce film au nom de son patron. Les conservateurs sont avant tout choqués par le titre du film, car Fuck est un terme considéré comme extrêmement vulgaire au Canada anglophone[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'assistante du député conservateur ontarien Gary Goodyear a été congédiée parce qu'elle a réservé un billet pour une avant-première de ce film au nom de son patron. Les conservateurs sont avant tout choqués par le titre du film, car Fuck est un terme considéré comme extrêmement vulgaire au Canada anglophone.
 </t>
         </is>
       </c>
